--- a/Problems1-24-Autumn (1).xlsx
+++ b/Problems1-24-Autumn (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8722404-E93F-4B32-B052-DC1D1B084C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B81AF16-5B01-419A-86BA-73004F4F7FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="217">
   <si>
     <t>}</t>
   </si>
@@ -684,6 +684,21 @@
   </si>
   <si>
     <t>{ANIMATE,SEASON} -&gt; {SEASON, ANIMATE}</t>
+  </si>
+  <si>
+    <t>ANIMATE -&gt; HOTEL</t>
+  </si>
+  <si>
+    <t>R1)</t>
+  </si>
+  <si>
+    <t>R2)</t>
+  </si>
+  <si>
+    <t>R3)</t>
+  </si>
+  <si>
+    <t>R4)</t>
   </si>
 </sst>
 </file>
@@ -860,6 +875,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297181</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>95401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{971E24B1-CBEC-A9EF-A642-42679374851F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="891541" y="58338720"/>
+          <a:ext cx="3215640" cy="1741321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>179271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73CA3C91-03E2-2CCA-A418-391CEB21341D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9540240" y="58338721"/>
+          <a:ext cx="3741420" cy="2008070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>20849</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8AE930F-A0BE-CEB4-2297-36EBD6CBDE3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5090161" y="58338720"/>
+          <a:ext cx="3861328" cy="1836420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>296345</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FC6FCB-3139-B486-E795-79CA97E7B716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14432280" y="58331100"/>
+          <a:ext cx="5157905" cy="1379220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1160,10 +1356,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C63A9C-52B5-48DD-AFC1-6117206D7AE1}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:AC334"/>
+  <dimension ref="A2:AC345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F302" sqref="F302"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC334" sqref="AC334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5406,7 +5602,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:25">
       <c r="A305" s="24">
         <v>15</v>
       </c>
@@ -5414,7 +5610,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:25">
       <c r="C306" t="s">
         <v>206</v>
       </c>
@@ -5422,7 +5618,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="307" spans="1:25">
+      <c r="D307" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="308" spans="1:25">
       <c r="C308" t="s">
         <v>207</v>
       </c>
@@ -5430,7 +5631,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:25">
       <c r="A309" s="23">
         <v>16</v>
       </c>
@@ -5438,7 +5639,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:25">
       <c r="C310" t="s">
         <v>206</v>
       </c>
@@ -5446,17 +5647,17 @@
         <v>205</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:25">
       <c r="D311" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:25">
       <c r="D312" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:25">
       <c r="C314" t="s">
         <v>207</v>
       </c>
@@ -5464,318 +5665,333 @@
         <v>210</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:25">
       <c r="D315" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317">
+    <row r="317" spans="1:25">
+      <c r="A317" s="23">
         <v>17</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="23">
+    <row r="319" spans="1:25">
+      <c r="B319" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J319" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y319" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10">
+      <c r="A330" s="23">
         <v>18</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B330" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="B320" s="2" t="s">
+    <row r="331" spans="1:10">
+      <c r="B331" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="321" spans="1:10">
-      <c r="A321" s="23">
+    <row r="332" spans="1:10">
+      <c r="A332" s="23">
         <v>19</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B332" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
-      <c r="D323" s="9" t="s">
+    <row r="334" spans="1:10">
+      <c r="D334" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E323" s="9" t="s">
+      <c r="E334" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F323" s="9" t="s">
+      <c r="F334" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G323" s="9" t="s">
+      <c r="G334" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H323" s="9" t="s">
+      <c r="H334" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I323" s="9" t="s">
+      <c r="I334" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="J323" s="9" t="s">
+      <c r="J334" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
-      <c r="D324" s="7" t="s">
+    <row r="335" spans="1:10">
+      <c r="D335" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E324" s="7">
+      <c r="E335" s="7">
         <v>15000</v>
       </c>
-      <c r="F324" s="7">
-        <v>1</v>
-      </c>
-      <c r="G324" s="7" t="s">
+      <c r="F335" s="7">
+        <v>1</v>
+      </c>
+      <c r="G335" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H324" s="7" t="s">
+      <c r="H335" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="I324" s="7" t="s">
+      <c r="I335" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J324" s="12" t="s">
+      <c r="J335" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="325" spans="1:10">
-      <c r="D325" s="7" t="s">
+    <row r="336" spans="1:10">
+      <c r="D336" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E325" s="7">
+      <c r="E336" s="7">
         <v>30000</v>
       </c>
-      <c r="F325" s="7">
-        <v>1</v>
-      </c>
-      <c r="G325" s="7" t="s">
+      <c r="F336" s="7">
+        <v>1</v>
+      </c>
+      <c r="G336" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H325" s="7" t="s">
+      <c r="H336" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="I325" s="7" t="s">
+      <c r="I336" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J325" s="12">
+      <c r="J336" s="12">
         <v>45047</v>
       </c>
     </row>
-    <row r="326" spans="1:10">
-      <c r="D326" s="7" t="s">
+    <row r="337" spans="4:10">
+      <c r="D337" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E326" s="7">
+      <c r="E337" s="7">
         <v>60000</v>
       </c>
-      <c r="F326" s="7">
-        <v>1</v>
-      </c>
-      <c r="G326" s="7" t="s">
+      <c r="F337" s="7">
+        <v>1</v>
+      </c>
+      <c r="G337" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H326" s="7" t="s">
+      <c r="H337" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="I326" s="21" t="s">
+      <c r="I337" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J326" s="21" t="s">
+      <c r="J337" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="327" spans="1:10">
-      <c r="D327" s="7" t="s">
+    <row r="338" spans="4:10">
+      <c r="D338" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E327" s="7">
+      <c r="E338" s="7">
         <v>17000</v>
       </c>
-      <c r="F327" s="7">
-        <v>1</v>
-      </c>
-      <c r="G327" s="7" t="s">
+      <c r="F338" s="7">
+        <v>1</v>
+      </c>
+      <c r="G338" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H327" s="7" t="s">
+      <c r="H338" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="I327" s="7" t="s">
+      <c r="I338" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J327" s="12">
+      <c r="J338" s="12">
         <v>45627</v>
       </c>
     </row>
-    <row r="328" spans="1:10">
-      <c r="D328" s="7" t="s">
+    <row r="339" spans="4:10">
+      <c r="D339" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E328" s="7">
+      <c r="E339" s="7">
         <v>23000</v>
       </c>
-      <c r="F328" s="7">
-        <v>1</v>
-      </c>
-      <c r="G328" s="7" t="s">
+      <c r="F339" s="7">
+        <v>1</v>
+      </c>
+      <c r="G339" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H328" s="7" t="s">
+      <c r="H339" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="I328" s="21" t="s">
+      <c r="I339" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J328" s="21" t="s">
+      <c r="J339" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="329" spans="1:10">
-      <c r="D329" s="7" t="s">
+    <row r="340" spans="4:10">
+      <c r="D340" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E329" s="7">
+      <c r="E340" s="7">
         <v>25000</v>
       </c>
-      <c r="F329" s="7">
-        <v>2</v>
-      </c>
-      <c r="G329" s="7" t="s">
+      <c r="F340" s="7">
+        <v>2</v>
+      </c>
+      <c r="G340" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H329" s="7" t="s">
+      <c r="H340" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="I329" s="21" t="s">
+      <c r="I340" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J329" s="21" t="s">
+      <c r="J340" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
-      <c r="D330" s="7" t="s">
+    <row r="341" spans="4:10">
+      <c r="D341" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E330" s="7">
+      <c r="E341" s="7">
         <v>32000</v>
       </c>
-      <c r="F330" s="7">
-        <v>2</v>
-      </c>
-      <c r="G330" s="7" t="s">
+      <c r="F341" s="7">
+        <v>2</v>
+      </c>
+      <c r="G341" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H330" s="7" t="s">
+      <c r="H341" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="I330" s="21" t="s">
+      <c r="I341" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J330" s="21" t="s">
+      <c r="J341" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="331" spans="1:10">
-      <c r="D331" s="7" t="s">
+    <row r="342" spans="4:10">
+      <c r="D342" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E331" s="7">
+      <c r="E342" s="7">
         <v>16000</v>
       </c>
-      <c r="F331" s="7">
-        <v>2</v>
-      </c>
-      <c r="G331" s="7" t="s">
+      <c r="F342" s="7">
+        <v>2</v>
+      </c>
+      <c r="G342" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H331" s="7" t="s">
+      <c r="H342" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="I331" s="7" t="s">
+      <c r="I342" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J331" s="12">
+      <c r="J342" s="12">
         <v>45627</v>
       </c>
     </row>
-    <row r="332" spans="1:10">
-      <c r="D332" s="7" t="s">
+    <row r="343" spans="4:10">
+      <c r="D343" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E332" s="7">
+      <c r="E343" s="7">
         <v>20000</v>
       </c>
-      <c r="F332" s="7">
-        <v>2</v>
-      </c>
-      <c r="G332" s="7" t="s">
+      <c r="F343" s="7">
+        <v>2</v>
+      </c>
+      <c r="G343" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H332" s="7" t="s">
+      <c r="H343" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="I332" s="7" t="s">
+      <c r="I343" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J332" s="12">
+      <c r="J343" s="12">
         <v>45627</v>
       </c>
     </row>
-    <row r="333" spans="1:10">
-      <c r="D333" s="7" t="s">
+    <row r="344" spans="4:10">
+      <c r="D344" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E333" s="7">
+      <c r="E344" s="7">
         <v>40000</v>
       </c>
-      <c r="F333" s="7">
-        <v>2</v>
-      </c>
-      <c r="G333" s="7" t="s">
+      <c r="F344" s="7">
+        <v>2</v>
+      </c>
+      <c r="G344" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H333" s="7" t="s">
+      <c r="H344" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="I333" s="7" t="s">
+      <c r="I344" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J333" s="12">
+      <c r="J344" s="12">
         <v>45047</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
-      <c r="D334" s="7" t="s">
+    <row r="345" spans="4:10">
+      <c r="D345" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E334" s="7">
+      <c r="E345" s="7">
         <v>17000</v>
       </c>
-      <c r="F334" s="7">
-        <v>1</v>
-      </c>
-      <c r="G334" s="7" t="s">
+      <c r="F345" s="7">
+        <v>1</v>
+      </c>
+      <c r="G345" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H334" s="7" t="s">
+      <c r="H345" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="I334" s="7" t="s">
+      <c r="I345" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J334" s="12">
+      <c r="J345" s="12">
         <v>45047</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Problems1-24-Autumn (1).xlsx
+++ b/Problems1-24-Autumn (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B81AF16-5B01-419A-86BA-73004F4F7FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960E01FF-C47D-476A-A3BE-1D36E0F9B663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="219">
   <si>
     <t>}</t>
   </si>
@@ -699,6 +699,12 @@
   </si>
   <si>
     <t>R4)</t>
+  </si>
+  <si>
+    <t>Иерархическая:</t>
+  </si>
+  <si>
+    <t>Сетевая:</t>
   </si>
 </sst>
 </file>
@@ -883,13 +889,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>297181</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>95401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -927,13 +933,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>179271</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -971,13 +977,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>20849</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1015,13 +1021,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>317</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>296345</xdr:colOff>
-      <xdr:row>325</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1047,6 +1053,94 @@
         <a:xfrm>
           <a:off x="14432280" y="58331100"/>
           <a:ext cx="5157905" cy="1379220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>513067</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69A23DF-C7D8-2254-DACF-B3DA8308B2D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2186941" y="20482560"/>
+          <a:ext cx="4025886" cy="1897380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>480061</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>579121</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114C7739-D6B2-4AB8-394E-CF019133C57D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801101" y="20185381"/>
+          <a:ext cx="2537460" cy="4053840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1356,10 +1450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C63A9C-52B5-48DD-AFC1-6117206D7AE1}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:AC345"/>
+  <dimension ref="A2:AC353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC334" sqref="AC334"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N113" sqref="N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2601,7 +2695,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:14">
       <c r="A97" s="23">
         <v>6</v>
       </c>
@@ -2609,7 +2703,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:14">
       <c r="H98" s="7">
         <v>12</v>
       </c>
@@ -2617,7 +2711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:14">
       <c r="H99" s="7">
         <v>11</v>
       </c>
@@ -2625,7 +2719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:14">
       <c r="F100" t="s">
         <v>22</v>
       </c>
@@ -2645,7 +2739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:14">
       <c r="H101" s="7">
         <v>86</v>
       </c>
@@ -2656,7 +2750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:14">
       <c r="H102" s="7">
         <v>12</v>
       </c>
@@ -2664,7 +2758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:14">
       <c r="H103" s="7">
         <v>9</v>
       </c>
@@ -2672,7 +2766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:14">
       <c r="H104" s="18">
         <v>56</v>
       </c>
@@ -2680,11 +2774,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:14">
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:14">
       <c r="D106" t="s">
         <v>181</v>
       </c>
@@ -2694,18 +2788,18 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:14">
       <c r="F107">
         <v>86</v>
       </c>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:14">
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:14">
       <c r="A109" s="24">
         <v>7</v>
       </c>
@@ -2713,564 +2807,435 @@
         <v>163</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:14">
       <c r="B110" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="23">
+    <row r="112" spans="1:14">
+      <c r="D112" t="s">
+        <v>217</v>
+      </c>
+      <c r="N112" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="23">
         <v>8</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
-      <c r="G117" t="s">
+    <row r="125" spans="1:13">
+      <c r="G125" t="s">
         <v>29</v>
       </c>
-      <c r="I117" s="7">
-        <v>1</v>
-      </c>
-      <c r="J117" s="7">
-        <v>7</v>
-      </c>
-      <c r="L117" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M117" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="I118" s="7">
-        <v>2</v>
-      </c>
-      <c r="J118" s="7">
-        <v>8</v>
-      </c>
-      <c r="L118" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M118" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="I119" s="7">
-        <v>3</v>
-      </c>
-      <c r="J119" s="7">
-        <v>9</v>
-      </c>
-      <c r="L119" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M119" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="I120" s="7">
-        <v>3</v>
-      </c>
-      <c r="J120" s="7">
-        <v>9</v>
-      </c>
-      <c r="L120" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M120" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="G122" t="s">
-        <v>30</v>
-      </c>
-      <c r="I122" s="7">
-        <v>67</v>
-      </c>
-      <c r="J122" s="7">
-        <v>67</v>
-      </c>
-      <c r="L122" s="7">
-        <v>1</v>
-      </c>
-      <c r="M122" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="I123" s="7">
-        <v>2</v>
-      </c>
-      <c r="J123" s="7">
-        <v>7</v>
-      </c>
-      <c r="L123" s="7">
-        <v>2</v>
-      </c>
-      <c r="M123" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="I124" s="7">
-        <v>87</v>
-      </c>
-      <c r="J124" s="7">
-        <v>65</v>
-      </c>
-      <c r="L124" s="7">
-        <v>3</v>
-      </c>
-      <c r="M124" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
       <c r="I125" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" s="7">
         <v>7</v>
       </c>
-      <c r="L125" s="7">
+      <c r="L125" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M125" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="I126" s="7">
+        <v>2</v>
+      </c>
+      <c r="J126" s="7">
+        <v>8</v>
+      </c>
+      <c r="L126" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M126" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="I127" s="7">
+        <v>3</v>
+      </c>
+      <c r="J127" s="7">
+        <v>9</v>
+      </c>
+      <c r="L127" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M127" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="I128" s="7">
+        <v>3</v>
+      </c>
+      <c r="J128" s="7">
+        <v>9</v>
+      </c>
+      <c r="L128" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M128" s="7">
         <v>4</v>
       </c>
-      <c r="M125" s="7" t="s">
+    </row>
+    <row r="130" spans="7:13">
+      <c r="G130" t="s">
+        <v>30</v>
+      </c>
+      <c r="I130" s="7">
+        <v>67</v>
+      </c>
+      <c r="J130" s="7">
+        <v>67</v>
+      </c>
+      <c r="L130" s="7">
+        <v>1</v>
+      </c>
+      <c r="M130" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="7:13">
+      <c r="I131" s="7">
+        <v>2</v>
+      </c>
+      <c r="J131" s="7">
+        <v>7</v>
+      </c>
+      <c r="L131" s="7">
+        <v>2</v>
+      </c>
+      <c r="M131" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="7:13">
+      <c r="I132" s="7">
+        <v>87</v>
+      </c>
+      <c r="J132" s="7">
+        <v>65</v>
+      </c>
+      <c r="L132" s="7">
+        <v>3</v>
+      </c>
+      <c r="M132" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="7:13">
+      <c r="I133" s="7">
+        <v>2</v>
+      </c>
+      <c r="J133" s="7">
+        <v>7</v>
+      </c>
+      <c r="L133" s="7">
+        <v>4</v>
+      </c>
+      <c r="M133" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
-      <c r="G127" t="s">
+    <row r="135" spans="7:13">
+      <c r="G135" t="s">
         <v>31</v>
       </c>
-      <c r="I127" s="8">
+      <c r="I135" s="8">
         <v>9</v>
       </c>
-      <c r="J127" s="8" t="s">
+      <c r="J135" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K127" s="14"/>
-      <c r="L127" s="8" t="s">
+      <c r="K135" s="14"/>
+      <c r="L135" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="M127" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="I128" s="8">
+      <c r="M135" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="7:13">
+      <c r="I136" s="8">
         <v>8</v>
       </c>
-      <c r="J128" s="8" t="s">
+      <c r="J136" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K128" s="14"/>
-      <c r="L128" s="8" t="s">
+      <c r="K136" s="14"/>
+      <c r="L136" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M128" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13">
-      <c r="I129" s="8">
+      <c r="M136" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="7:13">
+      <c r="I137" s="8">
         <v>45</v>
       </c>
-      <c r="J129" s="8" t="s">
+      <c r="J137" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K129" s="14"/>
-      <c r="L129" s="8" t="s">
+      <c r="K137" s="14"/>
+      <c r="L137" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="M129" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
-      <c r="I130" s="8">
+      <c r="M137" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="7:13">
+      <c r="I138" s="8">
         <v>4</v>
       </c>
-      <c r="J130" s="8" t="s">
+      <c r="J138" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K130" s="14"/>
-      <c r="L130" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M130" s="8">
+      <c r="K138" s="14"/>
+      <c r="L138" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M138" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
-      <c r="G132" t="s">
+    <row r="140" spans="7:13">
+      <c r="G140" t="s">
         <v>32</v>
       </c>
-      <c r="I132" s="7">
-        <v>1</v>
-      </c>
-      <c r="J132" s="7" t="s">
+      <c r="I140" s="7">
+        <v>1</v>
+      </c>
+      <c r="J140" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L132" s="7">
-        <v>1</v>
-      </c>
-      <c r="M132" s="7">
+      <c r="L140" s="7">
+        <v>1</v>
+      </c>
+      <c r="M140" s="7">
         <v>9876</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
-      <c r="I133" s="7">
-        <v>2</v>
-      </c>
-      <c r="J133" s="7" t="s">
+    <row r="141" spans="7:13">
+      <c r="I141" s="7">
+        <v>2</v>
+      </c>
+      <c r="J141" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L133" s="7">
-        <v>2</v>
-      </c>
-      <c r="M133" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
-      <c r="I134" s="7">
+      <c r="L141" s="7">
+        <v>2</v>
+      </c>
+      <c r="M141" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="7:13">
+      <c r="I142" s="7">
         <v>78</v>
       </c>
-      <c r="J134" s="7" t="s">
+      <c r="J142" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L134" s="7">
+      <c r="L142" s="7">
         <v>3</v>
       </c>
-      <c r="M134" s="7">
+      <c r="M142" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
-      <c r="I135" s="7">
+    <row r="143" spans="7:13">
+      <c r="I143" s="7">
         <v>4</v>
       </c>
-      <c r="J135" s="7" t="s">
+      <c r="J143" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L135" s="7">
+      <c r="L143" s="7">
         <v>4</v>
       </c>
-      <c r="M135" s="7">
+      <c r="M143" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
-      <c r="I136" s="17"/>
-      <c r="J136" s="17"/>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-    </row>
-    <row r="137" spans="1:13">
-      <c r="D137" t="s">
+    <row r="144" spans="7:13">
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="D145" t="s">
         <v>202</v>
       </c>
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-    </row>
-    <row r="139" spans="1:13">
-      <c r="A139" s="23">
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="23">
         <v>9</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
-      <c r="B140" s="2" t="s">
+    <row r="148" spans="1:13">
+      <c r="B148" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
-      <c r="I141" s="9" t="s">
+    <row r="149" spans="1:13">
+      <c r="I149" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J141" s="9" t="s">
+      <c r="J149" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K141" s="9" t="s">
+      <c r="K149" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L141" s="9" t="s">
+      <c r="L149" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M141" s="9" t="s">
+      <c r="M149" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
-      <c r="I142" s="9" t="s">
+    <row r="150" spans="1:13">
+      <c r="I150" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J142" s="9" t="s">
+      <c r="J150" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="K142" s="9" t="s">
+      <c r="K150" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="L142" s="9" t="s">
+      <c r="L150" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="M142" s="9" t="s">
+      <c r="M150" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
-      <c r="I143" s="7" t="s">
+    <row r="151" spans="1:13">
+      <c r="I151" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J143" s="7" t="s">
+      <c r="J151" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K143" s="7">
-        <v>1</v>
-      </c>
-      <c r="L143" s="7" t="s">
+      <c r="K151" s="7">
+        <v>1</v>
+      </c>
+      <c r="L151" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="M143" s="10">
+      <c r="M151" s="10">
         <v>36892</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
-      <c r="I144" s="7" t="s">
+    <row r="152" spans="1:13">
+      <c r="I152" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="J144" s="7" t="s">
+      <c r="J152" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K144" s="7">
-        <v>2</v>
-      </c>
-      <c r="L144" s="7" t="s">
+      <c r="K152" s="7">
+        <v>2</v>
+      </c>
+      <c r="L152" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M144" s="10">
+      <c r="M152" s="10">
         <v>39815</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
-      <c r="I145" s="7" t="s">
+    <row r="153" spans="1:13">
+      <c r="I153" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J145" s="7" t="s">
+      <c r="J153" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K145" s="7">
+      <c r="K153" s="7">
         <v>3</v>
       </c>
-      <c r="L145" s="7" t="s">
+      <c r="L153" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="M145" s="10">
+      <c r="M153" s="10">
         <v>43833</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
-      <c r="I146" s="7" t="s">
+    <row r="154" spans="1:13">
+      <c r="I154" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J146" s="7" t="s">
+      <c r="J154" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K146" s="7">
-        <v>1</v>
-      </c>
-      <c r="L146" s="7" t="s">
+      <c r="K154" s="7">
+        <v>1</v>
+      </c>
+      <c r="L154" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M146" s="10">
+      <c r="M154" s="10">
         <v>36892</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
-      <c r="I147" s="7" t="s">
+    <row r="155" spans="1:13">
+      <c r="I155" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="J147" s="7" t="s">
+      <c r="J155" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K147" s="7">
+      <c r="K155" s="7">
         <v>3</v>
       </c>
-      <c r="L147" s="7" t="s">
+      <c r="L155" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M147" s="10">
+      <c r="M155" s="10">
         <v>42374</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
-      <c r="B149" s="2" t="s">
+    <row r="157" spans="1:13">
+      <c r="B157" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
-      <c r="A151" s="23">
+    <row r="159" spans="1:13">
+      <c r="A159" s="23">
         <v>10</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
-      <c r="B152" s="2" t="s">
+    <row r="160" spans="1:13">
+      <c r="B160" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
-      <c r="F154" t="s">
+    <row r="162" spans="6:15">
+      <c r="F162" t="s">
         <v>29</v>
-      </c>
-      <c r="H154" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I154" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J154" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K154" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M154" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N154" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O154" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
-      <c r="H155" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I155" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J155" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="K155" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M155" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="N155" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O155" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
-      <c r="H156" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I156" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J156" s="7">
-        <v>10000</v>
-      </c>
-      <c r="K156" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M156" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="N156" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O156" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
-      <c r="H157" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I157" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J157" s="7">
-        <v>20000</v>
-      </c>
-      <c r="K157" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M157" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="N157" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="O157" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
-      <c r="H158" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I158" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J158" s="7">
-        <v>10000</v>
-      </c>
-      <c r="K158" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
-      <c r="H159" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I159" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J159" s="7">
-        <v>15000</v>
-      </c>
-      <c r="K159" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
-      <c r="H160" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I160" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J160" s="7">
-        <v>9000</v>
-      </c>
-      <c r="K160" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="162" spans="6:15">
-      <c r="F162" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="H162" s="9" t="s">
         <v>20</v>
@@ -3281,7 +3246,9 @@
       <c r="J162" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K162" s="11"/>
+      <c r="K162" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="M162" s="9" t="s">
         <v>20</v>
       </c>
@@ -3300,9 +3267,11 @@
         <v>37</v>
       </c>
       <c r="J163" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K163" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K163" s="11"/>
       <c r="M163" s="9" t="s">
         <v>169</v>
       </c>
@@ -3320,7 +3289,10 @@
       <c r="I164" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J164" s="7" t="s">
+      <c r="J164" s="7">
+        <v>10000</v>
+      </c>
+      <c r="K164" s="7" t="s">
         <v>135</v>
       </c>
       <c r="M164" s="7" t="s">
@@ -3340,7 +3312,10 @@
       <c r="I165" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J165" s="7" t="s">
+      <c r="J165" s="7">
+        <v>20000</v>
+      </c>
+      <c r="K165" s="7" t="s">
         <v>136</v>
       </c>
       <c r="M165" s="7" t="s">
@@ -3360,7 +3335,10 @@
       <c r="I166" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J166" s="7" t="s">
+      <c r="J166" s="7">
+        <v>10000</v>
+      </c>
+      <c r="K166" s="7" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3371,7 +3349,10 @@
       <c r="I167" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J167" s="7" t="s">
+      <c r="J167" s="7">
+        <v>15000</v>
+      </c>
+      <c r="K167" s="7" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3382,13 +3363,16 @@
       <c r="I168" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J168" s="7" t="s">
+      <c r="J168" s="7">
+        <v>9000</v>
+      </c>
+      <c r="K168" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="170" spans="6:15">
       <c r="F170" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H170" s="9" t="s">
         <v>20</v>
@@ -3399,9 +3383,7 @@
       <c r="J170" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K170" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="K170" s="11"/>
       <c r="M170" s="9" t="s">
         <v>20</v>
       </c>
@@ -3420,13 +3402,11 @@
         <v>37</v>
       </c>
       <c r="J171" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K171" s="9" t="s">
         <v>52</v>
       </c>
+      <c r="K171" s="11"/>
       <c r="M171" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N171" s="9" t="s">
         <v>53</v>
@@ -3442,10 +3422,7 @@
       <c r="I172" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J172" s="7">
-        <v>10000</v>
-      </c>
-      <c r="K172" s="7" t="s">
+      <c r="J172" s="7" t="s">
         <v>135</v>
       </c>
       <c r="M172" s="7" t="s">
@@ -3465,11 +3442,8 @@
       <c r="I173" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J173" s="7">
-        <v>20000</v>
-      </c>
-      <c r="K173" s="7" t="s">
-        <v>135</v>
+      <c r="J173" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="M173" s="7" t="s">
         <v>136</v>
@@ -3488,10 +3462,7 @@
       <c r="I174" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J174" s="7">
-        <v>10000</v>
-      </c>
-      <c r="K174" s="7" t="s">
+      <c r="J174" s="7" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3502,10 +3473,7 @@
       <c r="I175" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J175" s="7">
-        <v>15000</v>
-      </c>
-      <c r="K175" s="7" t="s">
+      <c r="J175" s="7" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3516,16 +3484,13 @@
       <c r="I176" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J176" s="7">
-        <v>9000</v>
-      </c>
-      <c r="K176" s="7" t="s">
-        <v>136</v>
+      <c r="J176" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="178" spans="6:15">
-      <c r="F178" t="s">
-        <v>32</v>
+      <c r="F178" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="H178" s="9" t="s">
         <v>20</v>
@@ -3557,7 +3522,7 @@
         <v>37</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="K179" s="9" t="s">
         <v>52</v>
@@ -3589,7 +3554,7 @@
         <v>135</v>
       </c>
       <c r="N180" s="7" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="O180" s="7" t="s">
         <v>40</v>
@@ -3606,13 +3571,13 @@
         <v>20000</v>
       </c>
       <c r="K181" s="7" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="M181" s="7" t="s">
         <v>136</v>
       </c>
       <c r="N181" s="7" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="O181" s="7" t="s">
         <v>46</v>
@@ -3661,8 +3626,8 @@
       </c>
     </row>
     <row r="186" spans="6:15">
-      <c r="F186" s="14" t="s">
-        <v>57</v>
+      <c r="F186" t="s">
+        <v>32</v>
       </c>
       <c r="H186" s="9" t="s">
         <v>20</v>
@@ -3720,13 +3685,13 @@
         <v>10000</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M188" s="7" t="s">
         <v>135</v>
       </c>
       <c r="N188" s="7" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="O188" s="7" t="s">
         <v>40</v>
@@ -3743,13 +3708,13 @@
         <v>20000</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="M189" s="7" t="s">
         <v>136</v>
       </c>
       <c r="N189" s="7" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="O189" s="7" t="s">
         <v>46</v>
@@ -3766,7 +3731,7 @@
         <v>10000</v>
       </c>
       <c r="K190" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="191" spans="6:15">
@@ -3780,7 +3745,7 @@
         <v>15000</v>
       </c>
       <c r="K191" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="192" spans="6:15">
@@ -3794,958 +3759,644 @@
         <v>9000</v>
       </c>
       <c r="K192" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15">
+      <c r="F194" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H194" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I194" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J194" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K194" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M194" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N194" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O194" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15">
+      <c r="H195" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I195" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J195" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K195" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M195" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="N195" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O195" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15">
+      <c r="H196" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I196" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J196" s="7">
+        <v>10000</v>
+      </c>
+      <c r="K196" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="H193" s="17"/>
-      <c r="I193" s="17"/>
-      <c r="J193" s="17"/>
-      <c r="K193" s="17"/>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="D194" t="s">
+      <c r="M196" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N196" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O196" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15">
+      <c r="H197" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I197" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J197" s="7">
+        <v>20000</v>
+      </c>
+      <c r="K197" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M197" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N197" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="O197" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15">
+      <c r="H198" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I198" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J198" s="7">
+        <v>10000</v>
+      </c>
+      <c r="K198" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15">
+      <c r="H199" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I199" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J199" s="7">
+        <v>15000</v>
+      </c>
+      <c r="K199" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15">
+      <c r="H200" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I200" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J200" s="7">
+        <v>9000</v>
+      </c>
+      <c r="K200" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15">
+      <c r="H201" s="17"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="17"/>
+      <c r="K201" s="17"/>
+    </row>
+    <row r="202" spans="1:15">
+      <c r="D202" t="s">
         <v>203</v>
       </c>
-      <c r="H194" s="17"/>
-      <c r="I194" s="17"/>
-      <c r="J194" s="17"/>
-      <c r="K194" s="17"/>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196" s="23">
+      <c r="H202" s="17"/>
+      <c r="I202" s="17"/>
+      <c r="J202" s="17"/>
+      <c r="K202" s="17"/>
+    </row>
+    <row r="204" spans="1:15">
+      <c r="A204" s="23">
         <v>11</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B204" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
-      <c r="B197" s="2" t="s">
+    <row r="205" spans="1:15">
+      <c r="B205" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
-      <c r="H199" s="9" t="s">
+    <row r="207" spans="1:15">
+      <c r="H207" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
-      <c r="H200" s="7" t="s">
+    <row r="208" spans="1:15">
+      <c r="H208" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
-      <c r="F201" t="s">
+    <row r="209" spans="1:20">
+      <c r="F209" t="s">
         <v>59</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G209" t="s">
         <v>21</v>
       </c>
-      <c r="H201" s="7" t="s">
+      <c r="H209" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
-      <c r="H202" s="7" t="s">
+    <row r="210" spans="1:20">
+      <c r="H210" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
-      <c r="H203" s="17"/>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="D204" t="s">
+    <row r="211" spans="1:20">
+      <c r="H211" s="17"/>
+    </row>
+    <row r="212" spans="1:20">
+      <c r="D212" t="s">
         <v>183</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G212" t="s">
         <v>184</v>
       </c>
-      <c r="H204" s="17"/>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="G205" t="s">
+      <c r="H212" s="17"/>
+    </row>
+    <row r="213" spans="1:20">
+      <c r="G213" t="s">
         <v>185</v>
       </c>
-      <c r="H205" s="17"/>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="G206" t="s">
+      <c r="H213" s="17"/>
+    </row>
+    <row r="214" spans="1:20">
+      <c r="G214" t="s">
         <v>186</v>
       </c>
-      <c r="H206" s="17"/>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="G207" t="s">
+      <c r="H214" s="17"/>
+    </row>
+    <row r="215" spans="1:20">
+      <c r="G215" t="s">
         <v>187</v>
       </c>
-      <c r="H207" s="17"/>
-    </row>
-    <row r="209" spans="1:20">
-      <c r="A209" s="23">
+      <c r="H215" s="17"/>
+    </row>
+    <row r="217" spans="1:20">
+      <c r="A217" s="23">
         <v>12</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="210" spans="1:20">
-      <c r="H210" s="9" t="s">
+    <row r="218" spans="1:20">
+      <c r="H218" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="I210" s="9" t="s">
+      <c r="I218" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J210" s="9" t="s">
+      <c r="J218" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="M210" s="9" t="s">
+      <c r="M218" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="N210" s="9" t="s">
+      <c r="N218" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="O210" s="9" t="s">
+      <c r="O218" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="R210" s="9" t="s">
+      <c r="R218" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S210" s="9" t="s">
+      <c r="S218" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="T210" s="9" t="s">
+      <c r="T218" s="9" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="211" spans="1:20">
-      <c r="H211" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I211" s="7">
-        <v>15000</v>
-      </c>
-      <c r="J211" s="7">
-        <v>1</v>
-      </c>
-      <c r="M211" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="N211" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O211" s="7">
-        <v>2</v>
-      </c>
-      <c r="R211" s="7">
-        <v>1</v>
-      </c>
-      <c r="S211" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="T211" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="212" spans="1:20">
-      <c r="F212" t="s">
-        <v>22</v>
-      </c>
-      <c r="G212" t="s">
-        <v>21</v>
-      </c>
-      <c r="H212" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I212" s="7">
-        <v>30000</v>
-      </c>
-      <c r="J212" s="7">
-        <v>1</v>
-      </c>
-      <c r="L212" t="s">
-        <v>65</v>
-      </c>
-      <c r="M212" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N212" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O212" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q212" t="s">
-        <v>71</v>
-      </c>
-      <c r="R212" s="7">
-        <v>2</v>
-      </c>
-      <c r="S212" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="T212" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="213" spans="1:20">
-      <c r="H213" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I213" s="7">
-        <v>60000</v>
-      </c>
-      <c r="J213" s="7">
-        <v>1</v>
-      </c>
-      <c r="M213" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N213" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O213" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:20">
-      <c r="H214" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I214" s="7">
-        <v>17000</v>
-      </c>
-      <c r="J214" s="7">
-        <v>1</v>
-      </c>
-      <c r="M214" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N214" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O214" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:20">
-      <c r="H215" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I215" s="7">
-        <v>23000</v>
-      </c>
-      <c r="J215" s="7">
-        <v>1</v>
-      </c>
-      <c r="M215" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N215" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O215" s="7">
-        <v>1</v>
-      </c>
-      <c r="R215" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="S215" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="216" spans="1:20">
-      <c r="H216" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I216" s="7">
-        <v>25000</v>
-      </c>
-      <c r="J216" s="7">
-        <v>2</v>
-      </c>
-      <c r="M216" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N216" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O216" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q216" t="s">
-        <v>78</v>
-      </c>
-      <c r="R216" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="S216" s="12">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="217" spans="1:20">
-      <c r="H217" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I217" s="7">
-        <v>32000</v>
-      </c>
-      <c r="J217" s="7">
-        <v>2</v>
-      </c>
-      <c r="R217" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="S217" s="12">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="218" spans="1:20">
-      <c r="H218" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I218" s="7">
-        <v>16000</v>
-      </c>
-      <c r="J218" s="7">
-        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:20">
       <c r="H219" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I219" s="7">
+        <v>15000</v>
+      </c>
+      <c r="J219" s="7">
+        <v>1</v>
+      </c>
+      <c r="M219" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I219" s="7">
+      <c r="N219" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O219" s="7">
+        <v>2</v>
+      </c>
+      <c r="R219" s="7">
+        <v>1</v>
+      </c>
+      <c r="S219" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="T219" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20">
+      <c r="F220" t="s">
+        <v>22</v>
+      </c>
+      <c r="G220" t="s">
+        <v>21</v>
+      </c>
+      <c r="H220" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I220" s="7">
+        <v>30000</v>
+      </c>
+      <c r="J220" s="7">
+        <v>1</v>
+      </c>
+      <c r="L220" t="s">
+        <v>65</v>
+      </c>
+      <c r="M220" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N220" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O220" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>71</v>
+      </c>
+      <c r="R220" s="7">
+        <v>2</v>
+      </c>
+      <c r="S220" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="T220" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20">
+      <c r="H221" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I221" s="7">
+        <v>60000</v>
+      </c>
+      <c r="J221" s="7">
+        <v>1</v>
+      </c>
+      <c r="M221" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N221" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O221" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20">
+      <c r="H222" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I222" s="7">
+        <v>17000</v>
+      </c>
+      <c r="J222" s="7">
+        <v>1</v>
+      </c>
+      <c r="M222" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N222" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O222" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20">
+      <c r="H223" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I223" s="7">
+        <v>23000</v>
+      </c>
+      <c r="J223" s="7">
+        <v>1</v>
+      </c>
+      <c r="M223" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N223" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O223" s="7">
+        <v>1</v>
+      </c>
+      <c r="R223" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="S223" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20">
+      <c r="H224" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I224" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J224" s="7">
+        <v>2</v>
+      </c>
+      <c r="M224" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N224" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O224" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>78</v>
+      </c>
+      <c r="R224" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S224" s="12">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="225" spans="2:29">
+      <c r="H225" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I225" s="7">
+        <v>32000</v>
+      </c>
+      <c r="J225" s="7">
+        <v>2</v>
+      </c>
+      <c r="R225" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S225" s="12">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="226" spans="2:29">
+      <c r="H226" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I226" s="7">
+        <v>16000</v>
+      </c>
+      <c r="J226" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="2:29">
+      <c r="H227" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I227" s="7">
         <v>20000</v>
       </c>
-      <c r="J219" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:20">
-      <c r="H220" s="7" t="s">
+      <c r="J227" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="2:29">
+      <c r="H228" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I220" s="7">
+      <c r="I228" s="7">
         <v>40000</v>
       </c>
-      <c r="J220" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:20">
-      <c r="B222" s="2" t="s">
+      <c r="J228" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="2:29">
+      <c r="B230" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="224" spans="1:20">
-      <c r="C224" t="s">
+    <row r="232" spans="2:29">
+      <c r="C232" t="s">
         <v>29</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D232" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="225" spans="2:29">
-      <c r="C225" t="s">
+    <row r="233" spans="2:29">
+      <c r="C233" t="s">
         <v>30</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D233" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="226" spans="2:29">
-      <c r="C226" t="s">
+    <row r="234" spans="2:29">
+      <c r="C234" t="s">
         <v>31</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D234" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="227" spans="2:29">
-      <c r="C227" t="s">
+    <row r="235" spans="2:29">
+      <c r="C235" t="s">
         <v>32</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D235" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="229" spans="2:29">
-      <c r="B229" s="2" t="s">
+    <row r="237" spans="2:29">
+      <c r="B237" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D229" s="9" t="s">
+      <c r="D237" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E229" s="9" t="s">
+      <c r="E237" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F229" s="9" t="s">
+      <c r="F237" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G229" s="9" t="s">
+      <c r="G237" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H229" s="9" t="s">
+      <c r="H237" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J229" s="19" t="s">
+      <c r="J237" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K229" s="9" t="s">
+      <c r="K237" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="L229" s="9" t="s">
+      <c r="L237" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="M229" s="9" t="s">
+      <c r="M237" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="N229" s="9" t="s">
+      <c r="N237" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="O229" s="9" t="s">
+      <c r="O237" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Q229" s="19" t="s">
+      <c r="Q237" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R229" s="9" t="s">
+      <c r="R237" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="S229" s="9" t="s">
+      <c r="S237" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="T229" s="9" t="s">
+      <c r="T237" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="U229" s="9" t="s">
+      <c r="U237" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="V229" s="9" t="s">
+      <c r="V237" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="X229" s="19" t="s">
+      <c r="X237" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="Y229" s="9" t="s">
+      <c r="Y237" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="Z229" s="9" t="s">
+      <c r="Z237" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA229" s="9" t="s">
+      <c r="AA237" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AB229" s="9" t="s">
+      <c r="AB237" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="AC229" s="9" t="s">
+      <c r="AC237" s="9" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="230" spans="2:29">
-      <c r="D230" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E230" s="7">
-        <v>15000</v>
-      </c>
-      <c r="F230" s="7">
-        <v>1</v>
-      </c>
-      <c r="G230" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H230" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K230" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L230" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M230" s="7">
-        <v>2</v>
-      </c>
-      <c r="N230" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="O230" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="R230" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="S230" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="T230" s="7">
-        <v>2</v>
-      </c>
-      <c r="U230" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="V230" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y230" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z230" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA230" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB230" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC230" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="231" spans="2:29">
-      <c r="D231" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E231" s="7">
-        <v>30000</v>
-      </c>
-      <c r="F231" s="7">
-        <v>1</v>
-      </c>
-      <c r="G231" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H231" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K231" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L231" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M231" s="7">
-        <v>1</v>
-      </c>
-      <c r="N231" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O231" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="R231" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S231" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="T231" s="7">
-        <v>1</v>
-      </c>
-      <c r="U231" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="V231" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y231" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z231" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA231" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB231" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC231" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="232" spans="2:29">
-      <c r="D232" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E232" s="7">
-        <v>60000</v>
-      </c>
-      <c r="F232" s="7">
-        <v>1</v>
-      </c>
-      <c r="G232" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H232" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K232" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L232" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M232" s="7">
-        <v>2</v>
-      </c>
-      <c r="N232" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="O232" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="R232" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="S232" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="T232" s="7">
-        <v>2</v>
-      </c>
-      <c r="U232" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="V232" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y232" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z232" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA232" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB232" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC232" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="233" spans="2:29">
-      <c r="D233" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E233" s="7">
-        <v>17000</v>
-      </c>
-      <c r="F233" s="7">
-        <v>1</v>
-      </c>
-      <c r="G233" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H233" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K233" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L233" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M233" s="7">
-        <v>1</v>
-      </c>
-      <c r="N233" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O233" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="R233" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="S233" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="T233" s="7">
-        <v>1</v>
-      </c>
-      <c r="U233" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="V233" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y233" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z233" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA233" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB233" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC233" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="234" spans="2:29">
-      <c r="D234" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E234" s="7">
-        <v>23000</v>
-      </c>
-      <c r="F234" s="7">
-        <v>1</v>
-      </c>
-      <c r="G234" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H234" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K234" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L234" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M234" s="7">
-        <v>1</v>
-      </c>
-      <c r="N234" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O234" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="R234" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S234" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="T234" s="7">
-        <v>1</v>
-      </c>
-      <c r="U234" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="V234" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y234" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z234" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA234" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB234" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC234" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="235" spans="2:29">
-      <c r="D235" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E235" s="7">
-        <v>25000</v>
-      </c>
-      <c r="F235" s="7">
-        <v>2</v>
-      </c>
-      <c r="G235" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H235" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K235" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L235" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M235" s="7">
-        <v>2</v>
-      </c>
-      <c r="N235" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="O235" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="R235" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="S235" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="T235" s="7">
-        <v>2</v>
-      </c>
-      <c r="U235" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="V235" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y235" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z235" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA235" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB235" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC235" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="236" spans="2:29">
-      <c r="D236" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E236" s="7">
-        <v>32000</v>
-      </c>
-      <c r="F236" s="7">
-        <v>2</v>
-      </c>
-      <c r="G236" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H236" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="R236" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="S236" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="T236" s="7">
-        <v>1</v>
-      </c>
-      <c r="U236" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="V236" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y236" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z236" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA236" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB236" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC236" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="237" spans="2:29">
-      <c r="D237" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E237" s="7">
-        <v>16000</v>
-      </c>
-      <c r="F237" s="7">
-        <v>2</v>
-      </c>
-      <c r="G237" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H237" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="R237" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S237" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="T237" s="7">
-        <v>2</v>
-      </c>
-      <c r="U237" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="V237" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y237" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z237" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA237" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB237" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC237" s="20" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="238" spans="2:29">
       <c r="D238" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E238" s="7">
+        <v>15000</v>
+      </c>
+      <c r="F238" s="7">
+        <v>1</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H238" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K238" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E238" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F238" s="7">
-        <v>2</v>
-      </c>
-      <c r="G238" s="7" t="s">
+      <c r="L238" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M238" s="7">
+        <v>2</v>
+      </c>
+      <c r="N238" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H238" s="7" t="s">
+      <c r="O238" s="7" t="s">
         <v>153</v>
       </c>
       <c r="R238" s="7" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="S238" s="7" t="s">
         <v>69</v>
       </c>
       <c r="T238" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U238" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="V238" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y238" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z238" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="V238" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y238" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z238" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="AA238" s="7" t="s">
         <v>150</v>
@@ -4759,40 +4410,55 @@
     </row>
     <row r="239" spans="2:29">
       <c r="D239" s="7" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="E239" s="7">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="F239" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="K239" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L239" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M239" s="7">
+        <v>1</v>
+      </c>
+      <c r="N239" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O239" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="R239" s="7" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="S239" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T239" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U239" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V239" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Y239" s="7">
         <v>1</v>
       </c>
       <c r="Z239" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA239" s="7" t="s">
         <v>150</v>
@@ -4805,16 +4471,41 @@
       </c>
     </row>
     <row r="240" spans="2:29">
-      <c r="D240" s="17"/>
-      <c r="E240" s="17"/>
-      <c r="F240" s="17"/>
-      <c r="G240" s="17"/>
-      <c r="H240" s="17"/>
+      <c r="D240" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E240" s="7">
+        <v>60000</v>
+      </c>
+      <c r="F240" s="7">
+        <v>1</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H240" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K240" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L240" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M240" s="7">
+        <v>2</v>
+      </c>
+      <c r="N240" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="O240" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="R240" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="S240" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T240" s="7">
         <v>2</v>
@@ -4829,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="Z240" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA240" s="7" t="s">
         <v>150</v>
@@ -4842,13 +4533,38 @@
       </c>
     </row>
     <row r="241" spans="4:29">
-      <c r="D241" s="17"/>
-      <c r="E241" s="17"/>
-      <c r="F241" s="17"/>
-      <c r="G241" s="17"/>
-      <c r="H241" s="17"/>
+      <c r="D241" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E241" s="7">
+        <v>17000</v>
+      </c>
+      <c r="F241" s="7">
+        <v>1</v>
+      </c>
+      <c r="G241" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H241" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K241" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L241" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M241" s="7">
+        <v>1</v>
+      </c>
+      <c r="N241" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O241" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="R241" s="7" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="S241" s="7" t="s">
         <v>70</v>
@@ -4866,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="Z241" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA241" s="7" t="s">
         <v>150</v>
@@ -4879,16 +4595,56 @@
       </c>
     </row>
     <row r="242" spans="4:29">
-      <c r="D242" s="17"/>
-      <c r="E242" s="17"/>
-      <c r="F242" s="17"/>
-      <c r="G242" s="17"/>
-      <c r="H242" s="17"/>
+      <c r="D242" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="7">
+        <v>23000</v>
+      </c>
+      <c r="F242" s="7">
+        <v>1</v>
+      </c>
+      <c r="G242" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H242" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K242" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L242" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M242" s="7">
+        <v>1</v>
+      </c>
+      <c r="N242" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O242" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="R242" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S242" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T242" s="7">
+        <v>1</v>
+      </c>
+      <c r="U242" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="V242" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="Y242" s="7">
         <v>1</v>
       </c>
       <c r="Z242" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA242" s="7" t="s">
         <v>153</v>
@@ -4901,16 +4657,56 @@
       </c>
     </row>
     <row r="243" spans="4:29">
-      <c r="D243" s="17"/>
-      <c r="E243" s="17"/>
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="17"/>
+      <c r="D243" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E243" s="7">
+        <v>25000</v>
+      </c>
+      <c r="F243" s="7">
+        <v>2</v>
+      </c>
+      <c r="G243" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H243" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K243" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L243" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M243" s="7">
+        <v>2</v>
+      </c>
+      <c r="N243" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="O243" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="R243" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="S243" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T243" s="7">
+        <v>2</v>
+      </c>
+      <c r="U243" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="V243" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="Y243" s="7">
         <v>1</v>
       </c>
       <c r="Z243" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA243" s="7" t="s">
         <v>153</v>
@@ -4923,16 +4719,41 @@
       </c>
     </row>
     <row r="244" spans="4:29">
-      <c r="D244" s="17"/>
-      <c r="E244" s="17"/>
-      <c r="F244" s="17"/>
-      <c r="G244" s="17"/>
-      <c r="H244" s="17"/>
+      <c r="D244" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E244" s="7">
+        <v>32000</v>
+      </c>
+      <c r="F244" s="7">
+        <v>2</v>
+      </c>
+      <c r="G244" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H244" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="R244" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="S244" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T244" s="7">
+        <v>1</v>
+      </c>
+      <c r="U244" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="V244" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="Y244" s="7">
         <v>1</v>
       </c>
       <c r="Z244" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA244" s="7" t="s">
         <v>153</v>
@@ -4945,16 +4766,41 @@
       </c>
     </row>
     <row r="245" spans="4:29">
-      <c r="D245" s="17"/>
-      <c r="E245" s="17"/>
-      <c r="F245" s="17"/>
-      <c r="G245" s="17"/>
-      <c r="H245" s="17"/>
+      <c r="D245" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E245" s="7">
+        <v>16000</v>
+      </c>
+      <c r="F245" s="7">
+        <v>2</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H245" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="R245" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S245" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T245" s="7">
+        <v>2</v>
+      </c>
+      <c r="U245" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="V245" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="Y245" s="7">
         <v>1</v>
       </c>
       <c r="Z245" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA245" s="7" t="s">
         <v>153</v>
@@ -4967,16 +4813,41 @@
       </c>
     </row>
     <row r="246" spans="4:29">
-      <c r="D246" s="17"/>
-      <c r="E246" s="17"/>
-      <c r="F246" s="17"/>
-      <c r="G246" s="17"/>
-      <c r="H246" s="17"/>
+      <c r="D246" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E246" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F246" s="7">
+        <v>2</v>
+      </c>
+      <c r="G246" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H246" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="R246" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S246" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T246" s="7">
+        <v>1</v>
+      </c>
+      <c r="U246" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="V246" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="Y246" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z246" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA246" s="7" t="s">
         <v>150</v>
@@ -4989,16 +4860,41 @@
       </c>
     </row>
     <row r="247" spans="4:29">
-      <c r="D247" s="17"/>
-      <c r="E247" s="17"/>
-      <c r="F247" s="17"/>
-      <c r="G247" s="17"/>
-      <c r="H247" s="17"/>
+      <c r="D247" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E247" s="7">
+        <v>40000</v>
+      </c>
+      <c r="F247" s="7">
+        <v>2</v>
+      </c>
+      <c r="G247" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H247" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="R247" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="S247" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T247" s="7">
+        <v>2</v>
+      </c>
+      <c r="U247" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="V247" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="Y247" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z247" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA247" s="7" t="s">
         <v>150</v>
@@ -5016,11 +4912,26 @@
       <c r="F248" s="17"/>
       <c r="G248" s="17"/>
       <c r="H248" s="17"/>
+      <c r="R248" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S248" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T248" s="7">
+        <v>2</v>
+      </c>
+      <c r="U248" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="V248" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="Y248" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z248" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA248" s="7" t="s">
         <v>150</v>
@@ -5038,11 +4949,26 @@
       <c r="F249" s="17"/>
       <c r="G249" s="17"/>
       <c r="H249" s="17"/>
+      <c r="R249" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="S249" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T249" s="7">
+        <v>1</v>
+      </c>
+      <c r="U249" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="V249" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="Y249" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z249" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA249" s="7" t="s">
         <v>150</v>
@@ -5061,10 +4987,10 @@
       <c r="G250" s="17"/>
       <c r="H250" s="17"/>
       <c r="Y250" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z250" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA250" s="7" t="s">
         <v>153</v>
@@ -5083,10 +5009,10 @@
       <c r="G251" s="17"/>
       <c r="H251" s="17"/>
       <c r="Y251" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z251" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA251" s="7" t="s">
         <v>153</v>
@@ -5105,10 +5031,10 @@
       <c r="G252" s="17"/>
       <c r="H252" s="17"/>
       <c r="Y252" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z252" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA252" s="7" t="s">
         <v>153</v>
@@ -5127,10 +5053,10 @@
       <c r="G253" s="17"/>
       <c r="H253" s="17"/>
       <c r="Y253" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z253" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA253" s="7" t="s">
         <v>153</v>
@@ -5152,7 +5078,7 @@
         <v>2</v>
       </c>
       <c r="Z254" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA254" s="7" t="s">
         <v>150</v>
@@ -5174,7 +5100,7 @@
         <v>2</v>
       </c>
       <c r="Z255" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA255" s="7" t="s">
         <v>150</v>
@@ -5196,7 +5122,7 @@
         <v>2</v>
       </c>
       <c r="Z256" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA256" s="7" t="s">
         <v>150</v>
@@ -5208,7 +5134,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="257" spans="1:29">
+    <row r="257" spans="4:29">
       <c r="D257" s="17"/>
       <c r="E257" s="17"/>
       <c r="F257" s="17"/>
@@ -5218,7 +5144,7 @@
         <v>2</v>
       </c>
       <c r="Z257" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA257" s="7" t="s">
         <v>150</v>
@@ -5230,7 +5156,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="258" spans="1:29">
+    <row r="258" spans="4:29">
       <c r="D258" s="17"/>
       <c r="E258" s="17"/>
       <c r="F258" s="17"/>
@@ -5240,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="Z258" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA258" s="7" t="s">
         <v>153</v>
@@ -5252,7 +5178,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="259" spans="1:29">
+    <row r="259" spans="4:29">
       <c r="D259" s="17"/>
       <c r="E259" s="17"/>
       <c r="F259" s="17"/>
@@ -5262,7 +5188,7 @@
         <v>2</v>
       </c>
       <c r="Z259" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA259" s="7" t="s">
         <v>153</v>
@@ -5274,7 +5200,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="260" spans="1:29">
+    <row r="260" spans="4:29">
       <c r="D260" s="17"/>
       <c r="E260" s="17"/>
       <c r="F260" s="17"/>
@@ -5284,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="Z260" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA260" s="7" t="s">
         <v>153</v>
@@ -5296,7 +5222,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="261" spans="1:29">
+    <row r="261" spans="4:29">
       <c r="D261" s="17"/>
       <c r="E261" s="17"/>
       <c r="F261" s="17"/>
@@ -5306,7 +5232,7 @@
         <v>2</v>
       </c>
       <c r="Z261" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA261" s="7" t="s">
         <v>153</v>
@@ -5318,646 +5244,638 @@
         <v>189</v>
       </c>
     </row>
-    <row r="262" spans="1:29">
+    <row r="262" spans="4:29">
       <c r="D262" s="17"/>
       <c r="E262" s="17"/>
       <c r="F262" s="17"/>
       <c r="G262" s="17"/>
       <c r="H262" s="17"/>
-    </row>
-    <row r="263" spans="1:29">
+      <c r="Y262" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z262" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA262" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB262" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC262" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="263" spans="4:29">
       <c r="D263" s="17"/>
       <c r="E263" s="17"/>
       <c r="F263" s="17"/>
       <c r="G263" s="17"/>
       <c r="H263" s="17"/>
-    </row>
-    <row r="264" spans="1:29">
+      <c r="Y263" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z263" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA263" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB263" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC263" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="264" spans="4:29">
       <c r="D264" s="17"/>
       <c r="E264" s="17"/>
       <c r="F264" s="17"/>
       <c r="G264" s="17"/>
       <c r="H264" s="17"/>
-    </row>
-    <row r="267" spans="1:29">
-      <c r="A267" s="23">
+      <c r="Y264" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z264" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA264" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB264" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC264" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="265" spans="4:29">
+      <c r="D265" s="17"/>
+      <c r="E265" s="17"/>
+      <c r="F265" s="17"/>
+      <c r="G265" s="17"/>
+      <c r="H265" s="17"/>
+      <c r="Y265" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z265" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA265" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB265" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC265" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="266" spans="4:29">
+      <c r="D266" s="17"/>
+      <c r="E266" s="17"/>
+      <c r="F266" s="17"/>
+      <c r="G266" s="17"/>
+      <c r="H266" s="17"/>
+      <c r="Y266" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z266" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA266" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB266" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC266" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="267" spans="4:29">
+      <c r="D267" s="17"/>
+      <c r="E267" s="17"/>
+      <c r="F267" s="17"/>
+      <c r="G267" s="17"/>
+      <c r="H267" s="17"/>
+      <c r="Y267" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z267" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA267" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB267" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC267" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="268" spans="4:29">
+      <c r="D268" s="17"/>
+      <c r="E268" s="17"/>
+      <c r="F268" s="17"/>
+      <c r="G268" s="17"/>
+      <c r="H268" s="17"/>
+      <c r="Y268" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z268" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA268" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB268" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC268" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="269" spans="4:29">
+      <c r="D269" s="17"/>
+      <c r="E269" s="17"/>
+      <c r="F269" s="17"/>
+      <c r="G269" s="17"/>
+      <c r="H269" s="17"/>
+      <c r="Y269" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z269" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA269" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB269" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC269" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="270" spans="4:29">
+      <c r="D270" s="17"/>
+      <c r="E270" s="17"/>
+      <c r="F270" s="17"/>
+      <c r="G270" s="17"/>
+      <c r="H270" s="17"/>
+    </row>
+    <row r="271" spans="4:29">
+      <c r="D271" s="17"/>
+      <c r="E271" s="17"/>
+      <c r="F271" s="17"/>
+      <c r="G271" s="17"/>
+      <c r="H271" s="17"/>
+    </row>
+    <row r="272" spans="4:29">
+      <c r="D272" s="17"/>
+      <c r="E272" s="17"/>
+      <c r="F272" s="17"/>
+      <c r="G272" s="17"/>
+      <c r="H272" s="17"/>
+    </row>
+    <row r="275" spans="1:11">
+      <c r="A275" s="23">
         <v>13</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B275" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="268" spans="1:29">
-      <c r="B268" s="2" t="s">
+    <row r="276" spans="1:11">
+      <c r="B276" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="270" spans="1:29">
-      <c r="B270" s="2" t="s">
+    <row r="278" spans="1:11">
+      <c r="B278" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="272" spans="1:29">
-      <c r="E272" t="s">
+    <row r="280" spans="1:11">
+      <c r="E280" t="s">
         <v>29</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F280" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
-      <c r="E273" t="s">
+    <row r="281" spans="1:11">
+      <c r="E281" t="s">
         <v>30</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F281" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
-      <c r="C275" t="s">
+    <row r="283" spans="1:11">
+      <c r="C283" t="s">
         <v>29</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D283" t="s">
         <v>190</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E283" t="s">
         <v>191</v>
       </c>
-      <c r="F275" t="s">
+      <c r="F283" t="s">
         <v>192</v>
       </c>
-      <c r="H275" t="s">
+      <c r="H283" t="s">
         <v>30</v>
       </c>
-      <c r="I275" t="s">
+      <c r="I283" t="s">
         <v>190</v>
       </c>
-      <c r="J275" t="s">
+      <c r="J283" t="s">
         <v>191</v>
       </c>
-      <c r="K275" t="s">
+      <c r="K283" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
-      <c r="D276">
+    <row r="284" spans="1:11">
+      <c r="D284">
         <v>0</v>
       </c>
-      <c r="E276">
+      <c r="E284">
         <v>0</v>
       </c>
-      <c r="F276">
+      <c r="F284">
         <v>0</v>
       </c>
-      <c r="I276">
+      <c r="I284">
         <v>0</v>
       </c>
-      <c r="J276">
+      <c r="J284">
         <v>0</v>
       </c>
-      <c r="K276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11">
-      <c r="D277">
+      <c r="K284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
+      <c r="D285">
         <v>0</v>
       </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285">
         <v>0</v>
       </c>
-      <c r="I277">
+      <c r="I285">
         <v>0</v>
       </c>
-      <c r="J277">
-        <v>1</v>
-      </c>
-      <c r="K277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11">
-      <c r="D278">
-        <v>1</v>
-      </c>
-      <c r="E278">
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
         <v>0</v>
       </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="I278">
-        <v>1</v>
-      </c>
-      <c r="J278">
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
         <v>0</v>
       </c>
-      <c r="K278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11">
-      <c r="D279">
-        <v>1</v>
-      </c>
-      <c r="E279">
-        <v>1</v>
-      </c>
-      <c r="F279">
-        <v>1</v>
-      </c>
-      <c r="I279">
-        <v>1</v>
-      </c>
-      <c r="J279">
-        <v>1</v>
-      </c>
-      <c r="K279">
+      <c r="K286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
-      <c r="A282" s="23">
+    <row r="290" spans="1:6">
+      <c r="A290" s="23">
         <v>14</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B290" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
-      <c r="B283" s="2" t="s">
+    <row r="291" spans="1:6">
+      <c r="B291" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
-      <c r="B284" s="2" t="s">
+    <row r="292" spans="1:6">
+      <c r="B292" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
-      <c r="B285" s="2" t="s">
+    <row r="293" spans="1:6">
+      <c r="B293" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
-      <c r="B287" s="2" t="s">
+    <row r="295" spans="1:6">
+      <c r="B295" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="9" t="s">
+      <c r="D295" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E287" s="9" t="s">
+      <c r="E295" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F287" s="9" t="s">
+      <c r="F295" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
-      <c r="D288" s="7" t="s">
+    <row r="296" spans="1:6">
+      <c r="D296" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E288" s="7" t="s">
+      <c r="E296" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F288" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289" spans="2:6">
-      <c r="D289" s="7" t="s">
+      <c r="F296" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="D297" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E289" s="7" t="s">
+      <c r="E297" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F289" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="2:6">
-      <c r="D290" s="7" t="s">
+      <c r="F297" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="D298" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E290" s="7" t="s">
+      <c r="E298" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F290" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="2:6">
-      <c r="D291" s="7" t="s">
+      <c r="F298" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="D299" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E291" s="7" t="s">
+      <c r="E299" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F291" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="2:6">
-      <c r="D292" s="7" t="s">
+      <c r="F299" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="D300" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E292" s="7" t="s">
+      <c r="E300" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F292" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="2:6">
-      <c r="D293" s="7" t="s">
+      <c r="F300" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="D301" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E293" s="7" t="s">
+      <c r="E301" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F293" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="298" spans="2:6">
-      <c r="B298" s="2" t="s">
+      <c r="F301" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="B306" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="300" spans="2:6">
-      <c r="D300" t="s">
+    <row r="308" spans="1:4">
+      <c r="D308" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="301" spans="2:6">
-      <c r="D301" t="s">
+    <row r="309" spans="1:4">
+      <c r="D309" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="302" spans="2:6">
-      <c r="D302" t="s">
+    <row r="310" spans="1:4">
+      <c r="D310" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="305" spans="1:25">
-      <c r="A305" s="24">
+    <row r="313" spans="1:4">
+      <c r="A313" s="24">
         <v>15</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B313" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="306" spans="1:25">
-      <c r="C306" t="s">
+    <row r="314" spans="1:4">
+      <c r="C314" t="s">
         <v>206</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D314" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="307" spans="1:25">
-      <c r="D307" t="s">
+    <row r="315" spans="1:4">
+      <c r="D315" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="308" spans="1:25">
-      <c r="C308" t="s">
+    <row r="316" spans="1:4">
+      <c r="C316" t="s">
         <v>207</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D316" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="309" spans="1:25">
-      <c r="A309" s="23">
+    <row r="317" spans="1:4">
+      <c r="A317" s="23">
         <v>16</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B317" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="310" spans="1:25">
-      <c r="C310" t="s">
+    <row r="318" spans="1:4">
+      <c r="C318" t="s">
         <v>206</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D318" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="311" spans="1:25">
-      <c r="D311" t="s">
+    <row r="319" spans="1:4">
+      <c r="D319" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="312" spans="1:25">
-      <c r="D312" t="s">
+    <row r="320" spans="1:4">
+      <c r="D320" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="314" spans="1:25">
-      <c r="C314" t="s">
+    <row r="322" spans="1:25">
+      <c r="C322" t="s">
         <v>207</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D322" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="315" spans="1:25">
-      <c r="D315" t="s">
+    <row r="323" spans="1:25">
+      <c r="D323" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="317" spans="1:25">
-      <c r="A317" s="23">
+    <row r="325" spans="1:25">
+      <c r="A325" s="23">
         <v>17</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B325" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="319" spans="1:25">
-      <c r="B319" s="2" t="s">
+    <row r="327" spans="1:25">
+      <c r="B327" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J319" t="s">
+      <c r="J327" t="s">
         <v>214</v>
       </c>
-      <c r="Q319" t="s">
+      <c r="Q327" t="s">
         <v>215</v>
       </c>
-      <c r="Y319" t="s">
+      <c r="Y327" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
-      <c r="A330" s="23">
+    <row r="338" spans="1:10">
+      <c r="A338" s="23">
         <v>18</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B338" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="331" spans="1:10">
-      <c r="B331" s="2" t="s">
+    <row r="339" spans="1:10">
+      <c r="B339" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="332" spans="1:10">
-      <c r="A332" s="23">
+    <row r="340" spans="1:10">
+      <c r="A340" s="23">
         <v>19</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B340" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
-      <c r="D334" s="9" t="s">
+    <row r="342" spans="1:10">
+      <c r="D342" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E334" s="9" t="s">
+      <c r="E342" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F334" s="9" t="s">
+      <c r="F342" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G334" s="9" t="s">
+      <c r="G342" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H334" s="9" t="s">
+      <c r="H342" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I334" s="9" t="s">
+      <c r="I342" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="J334" s="9" t="s">
+      <c r="J342" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
-      <c r="D335" s="7" t="s">
+    <row r="343" spans="1:10">
+      <c r="D343" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E335" s="7">
+      <c r="E343" s="7">
         <v>15000</v>
       </c>
-      <c r="F335" s="7">
-        <v>1</v>
-      </c>
-      <c r="G335" s="7" t="s">
+      <c r="F343" s="7">
+        <v>1</v>
+      </c>
+      <c r="G343" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H335" s="7" t="s">
+      <c r="H343" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="I335" s="7" t="s">
+      <c r="I343" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J335" s="12" t="s">
+      <c r="J343" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
-      <c r="D336" s="7" t="s">
+    <row r="344" spans="1:10">
+      <c r="D344" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E336" s="7">
+      <c r="E344" s="7">
         <v>30000</v>
       </c>
-      <c r="F336" s="7">
-        <v>1</v>
-      </c>
-      <c r="G336" s="7" t="s">
+      <c r="F344" s="7">
+        <v>1</v>
+      </c>
+      <c r="G344" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H336" s="7" t="s">
+      <c r="H344" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="I336" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J336" s="12">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="337" spans="4:10">
-      <c r="D337" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E337" s="7">
-        <v>60000</v>
-      </c>
-      <c r="F337" s="7">
-        <v>1</v>
-      </c>
-      <c r="G337" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H337" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I337" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J337" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="338" spans="4:10">
-      <c r="D338" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E338" s="7">
-        <v>17000</v>
-      </c>
-      <c r="F338" s="7">
-        <v>1</v>
-      </c>
-      <c r="G338" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H338" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I338" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J338" s="12">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="339" spans="4:10">
-      <c r="D339" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E339" s="7">
-        <v>23000</v>
-      </c>
-      <c r="F339" s="7">
-        <v>1</v>
-      </c>
-      <c r="G339" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H339" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I339" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J339" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="340" spans="4:10">
-      <c r="D340" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E340" s="7">
-        <v>25000</v>
-      </c>
-      <c r="F340" s="7">
-        <v>2</v>
-      </c>
-      <c r="G340" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H340" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I340" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J340" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="341" spans="4:10">
-      <c r="D341" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E341" s="7">
-        <v>32000</v>
-      </c>
-      <c r="F341" s="7">
-        <v>2</v>
-      </c>
-      <c r="G341" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H341" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I341" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J341" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="342" spans="4:10">
-      <c r="D342" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E342" s="7">
-        <v>16000</v>
-      </c>
-      <c r="F342" s="7">
-        <v>2</v>
-      </c>
-      <c r="G342" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H342" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I342" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J342" s="12">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="343" spans="4:10">
-      <c r="D343" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E343" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F343" s="7">
-        <v>2</v>
-      </c>
-      <c r="G343" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H343" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I343" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J343" s="12">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="344" spans="4:10">
-      <c r="D344" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E344" s="7">
-        <v>40000</v>
-      </c>
-      <c r="F344" s="7">
-        <v>2</v>
-      </c>
-      <c r="G344" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H344" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="I344" s="7" t="s">
         <v>70</v>
@@ -5966,12 +5884,12 @@
         <v>45047</v>
       </c>
     </row>
-    <row r="345" spans="4:10">
+    <row r="345" spans="1:10">
       <c r="D345" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E345" s="7">
-        <v>17000</v>
+        <v>60000</v>
       </c>
       <c r="F345" s="7">
         <v>1</v>
@@ -5982,10 +5900,194 @@
       <c r="H345" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="I345" s="7" t="s">
+      <c r="I345" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J345" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10">
+      <c r="D346" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E346" s="7">
+        <v>17000</v>
+      </c>
+      <c r="F346" s="7">
+        <v>1</v>
+      </c>
+      <c r="G346" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H346" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I346" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J346" s="12">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10">
+      <c r="D347" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E347" s="7">
+        <v>23000</v>
+      </c>
+      <c r="F347" s="7">
+        <v>1</v>
+      </c>
+      <c r="G347" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H347" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I347" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J347" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10">
+      <c r="D348" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E348" s="7">
+        <v>25000</v>
+      </c>
+      <c r="F348" s="7">
+        <v>2</v>
+      </c>
+      <c r="G348" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H348" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I348" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J348" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10">
+      <c r="D349" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E349" s="7">
+        <v>32000</v>
+      </c>
+      <c r="F349" s="7">
+        <v>2</v>
+      </c>
+      <c r="G349" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H349" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I349" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J349" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10">
+      <c r="D350" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E350" s="7">
+        <v>16000</v>
+      </c>
+      <c r="F350" s="7">
+        <v>2</v>
+      </c>
+      <c r="G350" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H350" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I350" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J350" s="12">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10">
+      <c r="D351" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E351" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F351" s="7">
+        <v>2</v>
+      </c>
+      <c r="G351" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H351" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I351" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J351" s="12">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10">
+      <c r="D352" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E352" s="7">
+        <v>40000</v>
+      </c>
+      <c r="F352" s="7">
+        <v>2</v>
+      </c>
+      <c r="G352" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H352" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I352" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J345" s="12">
+      <c r="J352" s="12">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="353" spans="4:10">
+      <c r="D353" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E353" s="7">
+        <v>17000</v>
+      </c>
+      <c r="F353" s="7">
+        <v>1</v>
+      </c>
+      <c r="G353" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H353" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I353" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J353" s="12">
         <v>45047</v>
       </c>
     </row>
